--- a/data/warn-scraper/cache/tx/2025-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2025-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7F1BE-F62E-4C02-B52E-AB1C455E266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BEA631D-391F-4868-A903-0FEBDD633EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1410" windowWidth="21600" windowHeight="11235" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3265,7 +3265,7 @@
   <dimension ref="A1:H635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>879</v>
@@ -3379,7 +3379,7 @@
         <v>45926</v>
       </c>
       <c r="G4" s="37">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>30</v>
@@ -19551,7 +19551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A627" s="6">
         <v>44950</v>
       </c>
@@ -19759,7 +19759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A635" s="6">
         <v>44932</v>
       </c>

--- a/data/warn-scraper/cache/tx/2025-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2025-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFD7F9-E43C-4914-B280-C98EAE4EBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75881442-040B-4647-9F9B-8782AA0AFA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="2010" windowWidth="21600" windowHeight="11235" tabRatio="96" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="96" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3116,10 +3116,10 @@
     <t>ABM Texas General Services (SMU)</t>
   </si>
   <si>
-    <t>Televista, Inc.</t>
-  </si>
-  <si>
     <t>FedEx Corporation Facility (Ft. Worth)</t>
+  </si>
+  <si>
+    <t>Telvista, Inc.</t>
   </si>
 </sst>
 </file>
@@ -3608,25 +3608,25 @@
   <dimension ref="A1:V754"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="3"/>
-    <col min="10" max="10" width="18.109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3652,12 +3652,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>46020</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>13</v>
@@ -3678,12 +3678,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>46017</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>13</v>
@@ -3704,7 +3704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>46013</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>46001</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>46001</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>45994</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>45994</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45993</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45993</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45987</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45986</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45982</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>45980</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45979</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45978</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45975</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45973</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45969</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45967</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45966</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45965</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45965</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45965</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45961</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45961</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45961</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45960</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45960</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45960</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45959</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45959</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45959</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>45959</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>45958</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>45958</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>45958</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45958</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>45953</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45953</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>45952</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>45945</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>45945</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>45943</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="T44" s="3"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:22" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>45939</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45938</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45938</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>45932</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>45932</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>45932</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>45932</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>45932</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>45932</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>45932</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="20"/>
     </row>
-    <row r="55" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>45932</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>45932</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>45932</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>45932</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>45932</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>45931</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>45931</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>45930</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>45930</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>45930</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>45930</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>45930</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>45929</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>45926</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>45925</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>45925</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>45924</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>45918</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>45917</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>45917</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>45910</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>45904</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>45904</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>45903</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>45896</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>45889</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>45887</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>45882</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>45875</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>45875</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>45875</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>45875</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>45875</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>45875</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>45875</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>45875</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>45875</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>45875</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>45870</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>45870</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>45870</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>45869</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>45869</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>45869</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>45869</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>45869</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>45869</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>45869</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>45869</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>45869</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>45869</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>45869</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>45869</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>45869</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>45869</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>45869</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>45869</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>45869</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>45868</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>45868</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>45868</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>45868</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>45868</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>45868</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>45868</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>45868</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>45861</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>45859</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>45859</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>45854</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>45848</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>45848</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>45848</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>45848</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>45847</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>45847</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>45847</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>45847</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>45847</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>45847</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>45847</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>45847</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>45846</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>45840</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>45840</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>45840</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>45840</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>45840</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>45840</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>45832</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>45832</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>45832</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>45832</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>45832</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>45832</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>45828</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>45828</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>45826</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>45826</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>45826</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>45825</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>45819</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>45819</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>45819</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>45812</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>45812</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>45811</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>45811</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>45805</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>45805</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>45805</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>45805</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>45805</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>45805</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>45805</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>45805</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>45805</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>45805</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>45805</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>45805</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>45805</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>45804</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>45798</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>45798</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>45798</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>45798</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>45798</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>45798</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>45798</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="9">
         <v>45798</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>45798</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>45798</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>45798</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>45798</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>45798</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>45798</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>45798</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>45798</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>45798</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>45797</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>45793</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
         <v>45793</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>45793</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>45791</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>45791</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>45791</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>45791</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>45785</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>45785</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>45784</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>45783</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>45783</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>45778</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>45777</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>45777</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>45777</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>45777</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>45770</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>45770</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>45770</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>45763</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>45763</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>45755</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>45755</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>45755</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>45755</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>45755</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>45755</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>45755</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>45749</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>45749</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>45749</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>45742</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>45742</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>45742</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>45742</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>45742</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>45742</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>45742</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>45735</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>45734</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>45733</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>45728</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>45728</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>45728</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>45728</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>45728</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>45728</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
         <v>45727</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
         <v>45727</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>45727</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>45727</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>45726</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>45722</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>45722</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
         <v>45721</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>45721</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>45721</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
         <v>45721</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>45719</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
         <v>45719</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
         <v>45719</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>45714</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>45714</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>45713</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>45712</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>45712</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>45707</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>45707</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>45706</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>45699</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>45699</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>45699</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
         <v>45698</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>45698</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>45698</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>45698</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>45693</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>45693</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
         <v>45693</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
         <v>45693</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
         <v>45693</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9">
         <v>45687</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>45686</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="9">
         <v>45686</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="9">
         <v>45686</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
         <v>45684</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>45678</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
         <v>45672</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
         <v>45671</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="9">
         <v>45671</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
         <v>45666</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="9">
         <v>45665</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="9">
         <v>45665</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
         <v>45665</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>45664</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9">
         <v>45653</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9">
         <v>45644</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="9">
         <v>45637</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="9">
         <v>45637</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="9">
         <v>45637</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="9">
         <v>45630</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9">
         <v>45621</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="9">
         <v>45621</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
         <v>45621</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="9">
         <v>45615</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="9">
         <v>45615</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="9">
         <v>45615</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="9">
         <v>45615</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="9">
         <v>45615</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="9">
         <v>45615</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="9">
         <v>45615</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="9">
         <v>45615</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="9">
         <v>45615</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="9">
         <v>45615</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="9">
         <v>45615</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="9">
         <v>45615</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="9">
         <v>45615</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="9">
         <v>45614</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="9">
         <v>45614</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="9">
         <v>45614</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="9">
         <v>45608</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="9">
         <v>45608</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="9">
         <v>45608</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="9">
         <v>45608</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9">
         <v>45601</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="9">
         <v>45601</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="9">
         <v>45595</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="9">
         <v>45594</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="9">
         <v>45594</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="9">
         <v>45594</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="9">
         <v>45589</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="9">
         <v>45588</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="9">
         <v>45588</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="9">
         <v>45587</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="9">
         <v>45581</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="9">
         <v>45581</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="9">
         <v>45581</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="9">
         <v>45575</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="9">
         <v>45575</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="9">
         <v>45558</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>45558</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="9">
         <v>45554</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="9">
         <v>45551</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="9">
         <v>45547</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="9">
         <v>45546</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="9">
         <v>45545</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="9">
         <v>45541</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="9">
         <v>45539</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
         <v>45539</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
         <v>45534</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
         <v>45532</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
         <v>45531</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
         <v>45525</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="9">
         <v>45518</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
         <v>45516</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
         <v>45516</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="9">
         <v>45516</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
         <v>45516</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
         <v>45516</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="9">
         <v>45516</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="9">
         <v>45516</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A357" s="9">
         <v>45516</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="9">
         <v>45516</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
         <v>45516</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
         <v>45516</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="9">
         <v>45516</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="9">
         <v>45516</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="9">
         <v>45512</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="9">
         <v>45512</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="9">
         <v>45512</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="9">
         <v>45512</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="9">
         <v>45512</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="9">
         <v>45512</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="9">
         <v>45512</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="9">
         <v>45512</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="9">
         <v>45512</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="9">
         <v>45512</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="9">
         <v>45512</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="9">
         <v>45512</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="9">
         <v>45511</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="9">
         <v>45511</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="9">
         <v>45511</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="9">
         <v>45511</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="9">
         <v>45511</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="9">
         <v>45510</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="9">
         <v>45509</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="9">
         <v>45509</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="9">
         <v>45509</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="9">
         <v>45505</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="9">
         <v>45505</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="9">
         <v>45502</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="9">
         <v>45499</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="9">
         <v>45499</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>45498</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>45498</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="9">
         <v>45496</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>45496</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>45491</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="9">
         <v>45491</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>45491</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="9">
         <v>45491</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="9">
         <v>45490</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="9">
         <v>45490</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A399" s="9">
         <v>45490</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="9">
         <v>45478</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="9">
         <v>45478</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="9">
         <v>45476</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="9">
         <v>45473</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="9">
         <v>45473</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="9">
         <v>45473</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="9">
         <v>45473</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="9">
         <v>45470</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A408" s="9">
         <v>45468</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="9">
         <v>45467</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="9">
         <v>45463</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="9">
         <v>45460</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="9">
         <v>45457</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="9">
         <v>45457</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="9">
         <v>45456</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="9">
         <v>45455</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A416" s="9">
         <v>45454</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="9">
         <v>45453</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="9">
         <v>45447</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="9">
         <v>45447</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="9">
         <v>45447</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="9">
         <v>45447</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="9">
         <v>45447</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="9">
         <v>45447</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="9">
         <v>45447</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="9">
         <v>45447</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="9">
         <v>45447</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="9">
         <v>45447</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="9">
         <v>45447</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="9">
         <v>45447</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="9">
         <v>45447</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="9">
         <v>45447</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="9">
         <v>45447</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="9">
         <v>45447</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="9">
         <v>45447</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="9">
         <v>45447</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="9">
         <v>45447</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="9">
         <v>45447</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="9">
         <v>45447</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="9">
         <v>45447</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="9">
         <v>45447</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="9">
         <v>45447</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="9">
         <v>45447</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="9">
         <v>45447</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="9">
         <v>45447</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="9">
         <v>45447</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="9">
         <v>45447</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="9">
         <v>45447</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="9">
         <v>45447</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="9">
         <v>45446</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="9">
         <v>45446</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="9">
         <v>45446</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="9">
         <v>45446</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="9">
         <v>45446</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="9">
         <v>45446</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="9">
         <v>45446</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="9">
         <v>45443</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A457" s="9">
         <v>45442</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="9">
         <v>45435</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="9">
         <v>45433</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="9">
         <v>45432</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="9">
         <v>45429</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="9">
         <v>45427</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="9">
         <v>45426</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="9">
         <v>45419</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A465" s="9">
         <v>45415</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="9">
         <v>45414</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A467" s="9">
         <v>45414</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A468" s="9">
         <v>45414</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="9">
         <v>45414</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="9">
         <v>45414</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="9">
         <v>45414</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="9">
         <v>45414</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A473" s="9">
         <v>45414</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="9">
         <v>45414</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="9">
         <v>45414</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="9">
         <v>45414</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="9">
         <v>45412</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="9">
         <v>45407</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="9">
         <v>45405</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="9">
         <v>45405</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="9">
         <v>45399</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="9">
         <v>45398</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="9">
         <v>45386</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="9">
         <v>45385</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="9">
         <v>45379</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A486" s="9">
         <v>45378</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="9">
         <v>45377</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="9">
         <v>45365</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="9">
         <v>45365</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="9">
         <v>45362</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="9">
         <v>45359</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="9">
         <v>45357</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="9">
         <v>45357</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="9">
         <v>45355</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="9">
         <v>45351</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="9">
         <v>45351</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="9">
         <v>45349</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="9">
         <v>45348</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="9">
         <v>45348</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="9">
         <v>45345</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="9">
         <v>45344</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="9">
         <v>45344</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="9">
         <v>45337</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="9">
         <v>45334</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="9">
         <v>45324</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="9">
         <v>45323</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="9">
         <v>45321</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="9">
         <v>45316</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="9">
         <v>45316</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="9">
         <v>45316</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="9">
         <v>45315</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="9">
         <v>45315</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="9">
         <v>45314</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="9">
         <v>45313</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" s="9">
         <v>45310</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A516" s="9">
         <v>45309</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="9">
         <v>45308</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="9">
         <v>45307</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="9">
         <v>45303</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="9">
         <v>45303</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="9">
         <v>45303</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="9">
         <v>45307</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="9">
         <v>45300</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="9">
         <v>45300</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="9">
         <v>45299</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="9">
         <v>45299</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="9">
         <v>45296</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="9">
         <v>45296</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="9">
         <v>45295</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="9">
         <v>45278</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A531" s="9">
         <v>45271</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" s="9">
         <v>45267</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="9">
         <v>45264</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="9">
         <v>45264</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="9">
         <v>45264</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="9">
         <v>45264</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="9">
         <v>45261</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="9">
         <v>45257</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A539" s="9">
         <v>45257</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A540" s="9">
         <v>45257</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="9">
         <v>45257</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="9">
         <v>45257</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="9">
         <v>45243</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="9">
         <v>45240</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>45238</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>45238</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>45238</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>45238</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>45238</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>45236</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>45236</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>45230</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>45230</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>45230</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>45225</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>45225</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>45225</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>45225</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>45225</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>45225</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>45225</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>45225</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="6">
         <v>45225</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="6">
         <v>45225</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
         <v>45225</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="6">
         <v>45225</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A567" s="6">
         <v>45225</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="6">
         <v>45225</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="6">
         <v>45224</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="6">
         <v>45224</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="6">
         <v>45222</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="6">
         <v>45222</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="6">
         <v>45222</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="6">
         <v>45222</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="6">
         <v>45222</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="6">
         <v>45219</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="6">
         <v>45219</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="6">
         <v>45219</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A579" s="6">
         <v>45218</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="6">
         <v>45218</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="6">
         <v>45218</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
         <v>45218</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="6">
         <v>45217</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
         <v>45211</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="6">
         <v>45209</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="6">
         <v>45209</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="6">
         <v>45208</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="6">
         <v>45208</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
         <v>45208</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="6">
         <v>45208</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="6">
         <v>45208</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="6">
         <v>45205</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="6">
         <v>45203</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="6">
         <v>45201</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="6">
         <v>45190</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="6">
         <v>45188</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="6">
         <v>45188</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A598" s="6">
         <v>45187</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="6">
         <v>45187</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A600" s="6">
         <v>45187</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="6">
         <v>45187</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="6">
         <v>45187</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="6">
         <v>45187</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="6">
         <v>45187</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="6">
         <v>45181</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="6">
         <v>45177</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="6">
         <v>45176</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="6">
         <v>45169</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="6">
         <v>45167</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="6">
         <v>45167</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="6">
         <v>45163</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="6">
         <v>45162</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="6">
         <v>45161</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="6">
         <v>45161</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="6">
         <v>45156</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="6">
         <v>45156</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="6">
         <v>45156</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="6">
         <v>45156</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="6">
         <v>45155</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A620" s="6">
         <v>45155</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="6">
         <v>45155</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="6">
         <v>45121</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="6">
         <v>45146</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="6">
         <v>45146</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="6">
         <v>45146</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="6">
         <v>45142</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="6">
         <v>45141</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="6">
         <v>45141</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="6">
         <v>45139</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="6">
         <v>45141</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="6">
         <v>45141</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="6">
         <v>45141</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="6">
         <v>45141</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="6">
         <v>45141</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A635" s="6">
         <v>45140</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="6">
         <v>45139</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" s="6">
         <v>45134</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="6">
         <v>45126</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="6">
         <v>45124</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="6">
         <v>45124</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="6">
         <v>45124</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A642" s="6">
         <v>45124</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="6">
         <v>45124</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A644" s="6">
         <v>45124</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="6">
         <v>45124</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="6">
         <v>45124</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="6">
         <v>45124</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="6">
         <v>45124</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="6">
         <v>45124</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="6">
         <v>45124</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="6">
         <v>45124</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="6">
         <v>45124</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A653" s="6">
         <v>45124</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="6">
         <v>45124</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="6">
         <v>45124</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="6">
         <v>45124</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="6">
         <v>45124</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="6">
         <v>45124</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="6">
         <v>45124</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="6">
         <v>45124</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="6">
         <v>45124</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="6">
         <v>45124</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="6">
         <v>45112</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="6">
         <v>45106</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A665" s="6">
         <v>45106</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="6">
         <v>45106</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A667" s="6">
         <v>45104</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="6">
         <v>45104</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="6">
         <v>45104</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="6">
         <v>45104</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="6">
         <v>45100</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="6">
         <v>45092</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="6">
         <v>45092</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A674" s="6">
         <v>45092</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="6">
         <v>45091</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="6">
         <v>45085</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="6">
         <v>45084</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="6">
         <v>45078</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A679" s="6">
         <v>45076</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="6">
         <v>45071</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="6">
         <v>45068</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="6">
         <v>45064</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="6">
         <v>45063</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="6">
         <v>45062</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="6">
         <v>45062</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="6">
         <v>45062</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A687" s="6">
         <v>45061</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="6">
         <v>45056</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" s="6">
         <v>45056</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="6">
         <v>45056</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="6">
         <v>45054</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="6">
         <v>45049</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="6">
         <v>45049</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="6">
         <v>45049</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A695" s="6">
         <v>45049</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="6">
         <v>45041</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="6">
         <v>45036</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="6">
         <v>45035</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A699" s="6">
         <v>45034</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="6">
         <v>45021</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="6">
         <v>45022</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="6">
         <v>45021</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A703" s="6">
         <v>45021</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="6">
         <v>45020</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="6">
         <v>45019</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="6">
         <v>45016</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="6">
         <v>45007</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="6">
         <v>45000</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="6">
         <v>44999</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A710" s="6">
         <v>45005</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="6">
         <v>44993</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="6">
         <v>44988</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="6">
         <v>44987</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="6">
         <v>44985</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="6">
         <v>44985</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A716" s="6">
         <v>44985</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="6">
         <v>44985</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A718" s="6">
         <v>44984</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A719" s="6">
         <v>44984</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="6">
         <v>44984</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="6">
         <v>44984</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="6">
         <v>44984</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="6">
         <v>44984</v>
       </c>
@@ -22441,7 +22441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="6">
         <v>44984</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="6">
         <v>44984</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="6">
         <v>44980</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A727" s="6">
         <v>44973</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="6">
         <v>44973</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="6">
         <v>44978</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="6">
         <v>44972</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="6">
         <v>44965</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A732" s="6">
         <v>44964</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="6">
         <v>44964</v>
       </c>
@@ -22701,7 +22701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A734" s="6">
         <v>44964</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="6">
         <v>44964</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="6">
         <v>44957</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="6">
         <v>44957</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="6">
         <v>44959</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="6">
         <v>44959</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="6">
         <v>44959</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="6">
         <v>44957</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="6">
         <v>44953</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="6">
         <v>44946</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="6">
         <v>44951</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="6">
         <v>44951</v>
       </c>
@@ -23013,7 +23013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="6">
         <v>44950</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="6">
         <v>44945</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="6">
         <v>44942</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="6">
         <v>44938</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="6">
         <v>44937</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="6">
         <v>44936</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="6">
         <v>44935</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="6">
         <v>44931</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A754" s="6">
         <v>44932</v>
       </c>
@@ -23486,20 +23486,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23522,6 +23522,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23529,12 +23537,4 @@
     <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>